--- a/LHX/LHX.xlsx
+++ b/LHX/LHX.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/534a1defcf7f9d1a/Company Models CloudSave/LHX/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="583" documentId="8_{D22262B3-9F51-41D1-8058-1D58853B65CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8B9A482F-E22F-4B32-AFF6-3DAF6A8A10E6}"/>
+  <xr:revisionPtr revIDLastSave="588" documentId="8_{D22262B3-9F51-41D1-8058-1D58853B65CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7B7BC7A8-B13E-4CC7-9329-F3F668FA875F}"/>
   <bookViews>
-    <workbookView xWindow="9750" yWindow="4160" windowWidth="19450" windowHeight="13050" activeTab="2" xr2:uid="{C2A9AC18-0129-4C84-8A37-DA6761B2E38B}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="2" xr2:uid="{C2A9AC18-0129-4C84-8A37-DA6761B2E38B}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -629,7 +629,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -646,11 +646,7 @@
     <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
@@ -791,12 +787,10 @@
     <v>Finance</v>
     <v>4</v>
     <v>255.095</v>
-    <v>167.14</v>
-    <v>0.7238</v>
-    <v>1.1599999999999999</v>
-    <v>1.5629999999999999E-3</v>
-    <v>6.7610000000000005E-3</v>
-    <v>0.27</v>
+    <v>160.25</v>
+    <v>0.68489999999999995</v>
+    <v>-3.59</v>
+    <v>-2.0303000000000002E-2</v>
     <v>USD</v>
     <v>L3Harris Technologies Inc. is a global aerospace and defense technology company. The Company operates through three segments. The Integrated Mission Systems segment includes multi-mission intelligence, surveillance and reconnaissance systems; integrated electrical and electronic systems for maritime platforms; advanced electro-optical and infrared solutions; fuzing and ordnance systems; commercial aviation products, and commercial pilot training operations. The Space &amp; Airborne Systems segment includes space payloads, sensors and full-mission solutions; classified intelligence and cyber; avionics; electronic warfare, and mission networks for air traffic management operations. The Communication Systems segment includes tactical communications with global communications solutions; broadband communications; integrated vision solutions; and public safety radios, system applications and equipment. The Company is also engaged in the Link 16 Tactical Data Links (TDL) business.</v>
     <v>46000</v>
@@ -804,25 +798,24 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>1025 W Nasa Blvd, MELBOURNE, FL, 32919-0001 US</v>
-    <v>173.48</v>
+    <v>177.42</v>
     <v>Aerospace &amp; Defense</v>
     <v>Stock</v>
-    <v>45184.999296700778</v>
+    <v>45211.797991168751</v>
     <v>0</v>
-    <v>171.35</v>
-    <v>32667000000</v>
+    <v>172.19</v>
+    <v>32763457620</v>
     <v>L3HARRIS TECHNOLOGIES, INC.</v>
     <v>L3HARRIS TECHNOLOGIES, INC.</v>
-    <v>171.35</v>
-    <v>41.081800000000001</v>
-    <v>171.56</v>
-    <v>172.72</v>
-    <v>172.99</v>
+    <v>177.42</v>
+    <v>42.057000000000002</v>
+    <v>176.82</v>
+    <v>173.23</v>
     <v>189132700</v>
     <v>LHX</v>
     <v>L3HARRIS TECHNOLOGIES, INC. (XNYS:LHX)</v>
-    <v>1685930</v>
-    <v>1013289</v>
+    <v>609889</v>
+    <v>1308005</v>
     <v>1926</v>
   </rv>
   <rv s="2">
@@ -853,9 +846,7 @@
     <k n="52 week low"/>
     <k n="Beta"/>
     <k n="Change"/>
-    <k n="Change % (Extended hours)"/>
     <k n="Change (%)"/>
-    <k n="Change (Extended hours)"/>
     <k n="Currency" t="s"/>
     <k n="Description" t="s"/>
     <k n="Employees"/>
@@ -876,7 +867,6 @@
     <k n="P/E"/>
     <k n="Previous close"/>
     <k n="Price"/>
-    <k n="Price (Extended hours)"/>
     <k n="Shares outstanding"/>
     <k n="Ticker symbol" t="s"/>
     <k n="UniqueName" t="s"/>
@@ -893,7 +883,7 @@
 <file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
 <supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
   <spbArrays count="1">
-    <a count="45">
+    <a count="42">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
       <v t="s">%IsRefreshable</v>
@@ -904,16 +894,13 @@
       <v t="s">Name</v>
       <v t="s">_SubLabel</v>
       <v t="s">Price</v>
-      <v t="s">Price (Extended hours)</v>
       <v t="s">Exchange</v>
       <v t="s">Official name</v>
       <v t="s">Last trade time</v>
       <v t="s">Ticker symbol</v>
       <v t="s">Exchange abbreviation</v>
       <v t="s">Change</v>
-      <v t="s">Change (Extended hours)</v>
       <v t="s">Change (%)</v>
-      <v t="s">Change % (Extended hours)</v>
       <v t="s">Currency</v>
       <v t="s">Previous close</v>
       <v t="s">Open</v>
@@ -979,19 +966,13 @@
       <v>8</v>
       <v>9</v>
       <v>4</v>
-      <v>1</v>
-      <v>1</v>
-      <v>5</v>
     </spb>
     <spb s="4">
-      <v>at close</v>
+      <v>Real-Time Nasdaq Last Sale</v>
       <v>from previous close</v>
       <v>from previous close</v>
       <v>Source: Nasdaq Last Sale</v>
       <v>GMT</v>
-      <v>Real-Time Nasdaq Last Sale</v>
-      <v>from close</v>
-      <v>from close</v>
     </spb>
   </spbData>
 </supportingPropertyBags>
@@ -1036,9 +1017,6 @@
     <k n="Year incorporated" t="i"/>
     <k n="`%EntityServiceId" t="i"/>
     <k n="Shares outstanding" t="i"/>
-    <k n="Price (Extended hours)" t="i"/>
-    <k n="Change (Extended hours)" t="i"/>
-    <k n="Change % (Extended hours)" t="i"/>
   </s>
   <s>
     <k n="Price" t="s"/>
@@ -1046,9 +1024,6 @@
     <k n="Change (%)" t="s"/>
     <k n="ExchangeID" t="s"/>
     <k n="Last trade time" t="s"/>
-    <k n="Price (Extended hours)" t="s"/>
-    <k n="Change (Extended hours)" t="s"/>
-    <k n="Change % (Extended hours)" t="s"/>
   </s>
 </spbStructures>
 </file>
@@ -1429,7 +1404,7 @@
       </c>
       <c r="B2" s="5" cm="1">
         <f t="array" ref="B2">_FV(A1,"Price")</f>
-        <v>172.72</v>
+        <v>173.23</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
@@ -1447,7 +1422,7 @@
       </c>
       <c r="B4" s="5">
         <f>B2*B3</f>
-        <v>32666.999943999999</v>
+        <v>32763.457620999998</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
@@ -1673,7 +1648,7 @@
   <dimension ref="A1:S106"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="7" topLeftCell="H61" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="7" topLeftCell="H8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
       <selection pane="bottomRight" activeCell="P101" sqref="P101"/>
@@ -1681,7 +1656,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="16.26953125" customWidth="1"/>
+    <col min="2" max="2" width="23.90625" customWidth="1"/>
     <col min="14" max="16" width="9.453125" bestFit="1" customWidth="1"/>
     <col min="18" max="19" width="9.453125" bestFit="1" customWidth="1"/>
   </cols>
@@ -1721,7 +1696,7 @@
       <c r="B3" t="s">
         <v>43</v>
       </c>
-      <c r="N3" s="19">
+      <c r="N3" s="15">
         <v>2017</v>
       </c>
       <c r="O3">
@@ -2174,53 +2149,53 @@
         <v>-279</v>
       </c>
     </row>
-    <row r="33" spans="2:19" s="14" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B33" s="14" t="s">
+    <row r="33" spans="2:19" s="13" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B33" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="J33" s="14">
+      <c r="J33" s="13">
         <f>SUM(J28:J32)</f>
         <v>0</v>
       </c>
-      <c r="K33" s="14">
+      <c r="K33" s="13">
         <f t="shared" ref="K33:M33" si="7">SUM(K28:K32)</f>
         <v>0</v>
       </c>
-      <c r="L33" s="14">
+      <c r="L33" s="13">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="M33" s="14">
+      <c r="M33" s="13">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="N33" s="14">
+      <c r="N33" s="13">
         <f>SUM(N28:N32)</f>
         <v>0</v>
       </c>
-      <c r="O33" s="14">
+      <c r="O33" s="13">
         <f t="shared" ref="O33:S33" si="8">SUM(O28:O32)</f>
         <v>0</v>
       </c>
-      <c r="P33" s="14">
+      <c r="P33" s="13">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="Q33" s="14">
+      <c r="Q33" s="13">
         <f t="shared" si="8"/>
         <v>-3986</v>
       </c>
-      <c r="R33" s="14">
+      <c r="R33" s="13">
         <f>SUM(R28:R32)</f>
         <v>-3093</v>
       </c>
-      <c r="S33" s="14">
+      <c r="S33" s="13">
         <f t="shared" si="8"/>
         <v>-3654</v>
       </c>
     </row>
     <row r="34" spans="2:19" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B34" s="15" t="s">
+      <c r="B34" s="9" t="s">
         <v>71</v>
       </c>
       <c r="J34" s="9">
@@ -2265,7 +2240,7 @@
       </c>
     </row>
     <row r="35" spans="2:19" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B35" s="16" t="s">
+      <c r="B35" s="10" t="s">
         <v>70</v>
       </c>
       <c r="Q35" s="10">
@@ -2279,7 +2254,7 @@
       </c>
     </row>
     <row r="36" spans="2:19" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B36" s="15" t="s">
+      <c r="B36" s="9" t="s">
         <v>72</v>
       </c>
       <c r="J36" s="9">
@@ -2324,7 +2299,7 @@
       </c>
     </row>
     <row r="37" spans="2:19" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B37" s="16" t="s">
+      <c r="B37" s="10" t="s">
         <v>73</v>
       </c>
       <c r="Q37" s="10">
@@ -2338,7 +2313,7 @@
       </c>
     </row>
     <row r="38" spans="2:19" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B38" s="15" t="s">
+      <c r="B38" s="9" t="s">
         <v>75</v>
       </c>
       <c r="J38" s="9">
@@ -2383,7 +2358,7 @@
       </c>
     </row>
     <row r="39" spans="2:19" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B39" s="16" t="s">
+      <c r="B39" s="10" t="s">
         <v>74</v>
       </c>
       <c r="Q39" s="10">
@@ -2397,7 +2372,7 @@
       </c>
     </row>
     <row r="40" spans="2:19" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B40" s="15" t="s">
+      <c r="B40" s="9" t="s">
         <v>76</v>
       </c>
       <c r="J40" s="9">
@@ -2442,47 +2417,47 @@
       </c>
     </row>
     <row r="41" spans="2:19" s="9" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="42" spans="2:19" s="20" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B42" s="20" t="s">
+    <row r="42" spans="2:19" s="16" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B42" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="J42" s="20" t="e">
+      <c r="J42" s="16" t="e">
         <f>J40/J43</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K42" s="20" t="e">
+      <c r="K42" s="16" t="e">
         <f t="shared" ref="K42:R42" si="14">K40/K43</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L42" s="20" t="e">
+      <c r="L42" s="16" t="e">
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="M42" s="20" t="e">
+      <c r="M42" s="16" t="e">
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N42" s="20" t="e">
+      <c r="N42" s="16" t="e">
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O42" s="20" t="e">
+      <c r="O42" s="16" t="e">
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="P42" s="20" t="e">
+      <c r="P42" s="16" t="e">
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q42" s="20">
+      <c r="Q42" s="16">
         <f t="shared" si="14"/>
         <v>5.4435129675424285</v>
       </c>
-      <c r="R42" s="20">
+      <c r="R42" s="16">
         <f t="shared" si="14"/>
         <v>9.561502106594185</v>
       </c>
-      <c r="S42" s="20">
+      <c r="S42" s="16">
         <f>S40/S43</f>
         <v>5.5868447796972163</v>
       </c>
@@ -3149,47 +3124,47 @@
         <v>1177</v>
       </c>
     </row>
-    <row r="80" spans="2:19" s="18" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B80" s="18" t="s">
+    <row r="80" spans="2:19" s="13" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B80" s="13" t="s">
         <v>112</v>
       </c>
-      <c r="J80" s="18">
+      <c r="J80" s="13">
         <f>SUM(J75:J79)</f>
         <v>0</v>
       </c>
-      <c r="K80" s="18">
+      <c r="K80" s="13">
         <f t="shared" ref="K80:R80" si="19">SUM(K75:K79)</f>
         <v>0</v>
       </c>
-      <c r="L80" s="18">
+      <c r="L80" s="13">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="M80" s="18">
+      <c r="M80" s="13">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="N80" s="18">
+      <c r="N80" s="13">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="O80" s="18">
+      <c r="O80" s="13">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="P80" s="18">
+      <c r="P80" s="13">
         <f t="shared" si="19"/>
         <v>11583</v>
       </c>
-      <c r="Q80" s="18">
+      <c r="Q80" s="13">
         <f t="shared" si="19"/>
         <v>11879</v>
       </c>
-      <c r="R80" s="18">
+      <c r="R80" s="13">
         <f t="shared" si="19"/>
         <v>10839</v>
       </c>
-      <c r="S80" s="18">
+      <c r="S80" s="13">
         <f>SUM(S75:S79)</f>
         <v>9124</v>
       </c>
@@ -3391,47 +3366,47 @@
         <v>101</v>
       </c>
     </row>
-    <row r="90" spans="2:19" s="17" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B90" s="17" t="s">
+    <row r="90" spans="2:19" s="14" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B90" s="14" t="s">
         <v>121</v>
       </c>
-      <c r="J90" s="17">
+      <c r="J90" s="14">
         <f>SUM(J88:J89)</f>
         <v>0</v>
       </c>
-      <c r="K90" s="17">
+      <c r="K90" s="14">
         <f t="shared" ref="K90:R90" si="22">SUM(K88:K89)</f>
         <v>0</v>
       </c>
-      <c r="L90" s="17">
+      <c r="L90" s="14">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="M90" s="17">
+      <c r="M90" s="14">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="N90" s="17">
+      <c r="N90" s="14">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="O90" s="17">
+      <c r="O90" s="14">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="P90" s="17">
+      <c r="P90" s="14">
         <f t="shared" si="22"/>
         <v>22744</v>
       </c>
-      <c r="Q90" s="17">
+      <c r="Q90" s="14">
         <f t="shared" si="22"/>
         <v>20841</v>
       </c>
-      <c r="R90" s="17">
+      <c r="R90" s="14">
         <f t="shared" si="22"/>
         <v>19319</v>
       </c>
-      <c r="S90" s="17">
+      <c r="S90" s="14">
         <f>SUM(S88:S89)</f>
         <v>18624</v>
       </c>

--- a/LHX/LHX.xlsx
+++ b/LHX/LHX.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/534a1defcf7f9d1a/Company Models CloudSave/LHX/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="588" documentId="8_{D22262B3-9F51-41D1-8058-1D58853B65CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7B7BC7A8-B13E-4CC7-9329-F3F668FA875F}"/>
+  <xr:revisionPtr revIDLastSave="639" documentId="8_{D22262B3-9F51-41D1-8058-1D58853B65CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9D57DFEB-7799-490B-8639-0D73FC48E674}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="2" xr2:uid="{C2A9AC18-0129-4C84-8A37-DA6761B2E38B}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="21600" activeTab="2" xr2:uid="{C2A9AC18-0129-4C84-8A37-DA6761B2E38B}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -110,7 +110,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="146">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -506,6 +506,48 @@
   </si>
   <si>
     <t>Total Shareholder's equity, excluding noncontrolling interests</t>
+  </si>
+  <si>
+    <t>Products</t>
+  </si>
+  <si>
+    <t>Acquisition</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Latitude Engineering </t>
+  </si>
+  <si>
+    <t>NovAtel</t>
+  </si>
+  <si>
+    <t>Hirschmann Multimedia Communication</t>
+  </si>
+  <si>
+    <t>Northeast Boradcast Lab</t>
+  </si>
+  <si>
+    <t>Zander Technologies</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>Acquire Date</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Link 16</t>
+  </si>
+  <si>
+    <t>Secure data product business from Viasat</t>
+  </si>
+  <si>
+    <t>Aerojet Rocketdyne</t>
+  </si>
+  <si>
+    <t>Specializes in creating rocket engines</t>
   </si>
 </sst>
 </file>
@@ -515,7 +557,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -560,6 +602,13 @@
       <color indexed="81"/>
       <name val="Tahoma"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -629,7 +678,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -649,6 +698,7 @@
     <xf numFmtId="3" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -664,6 +714,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
@@ -786,11 +840,11 @@
     <v>3</v>
     <v>Finance</v>
     <v>4</v>
-    <v>255.095</v>
+    <v>219.31</v>
     <v>160.25</v>
-    <v>0.68489999999999995</v>
-    <v>-3.59</v>
-    <v>-2.0303000000000002E-2</v>
+    <v>0.65390000000000004</v>
+    <v>0.01</v>
+    <v>4.7720000000000004E-5</v>
     <v>USD</v>
     <v>L3Harris Technologies Inc. is a global aerospace and defense technology company. The Company operates through three segments. The Integrated Mission Systems segment includes multi-mission intelligence, surveillance and reconnaissance systems; integrated electrical and electronic systems for maritime platforms; advanced electro-optical and infrared solutions; fuzing and ordnance systems; commercial aviation products, and commercial pilot training operations. The Space &amp; Airborne Systems segment includes space payloads, sensors and full-mission solutions; classified intelligence and cyber; avionics; electronic warfare, and mission networks for air traffic management operations. The Communication Systems segment includes tactical communications with global communications solutions; broadband communications; integrated vision solutions; and public safety radios, system applications and equipment. The Company is also engaged in the Link 16 Tactical Data Links (TDL) business.</v>
     <v>46000</v>
@@ -798,24 +852,24 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>1025 W Nasa Blvd, MELBOURNE, FL, 32919-0001 US</v>
-    <v>177.42</v>
+    <v>209.63</v>
     <v>Aerospace &amp; Defense</v>
     <v>Stock</v>
-    <v>45211.797991168751</v>
+    <v>45330.82215303203</v>
     <v>0</v>
-    <v>172.19</v>
-    <v>32763457620</v>
+    <v>206.49</v>
+    <v>39720050000</v>
     <v>L3HARRIS TECHNOLOGIES, INC.</v>
     <v>L3HARRIS TECHNOLOGIES, INC.</v>
-    <v>177.42</v>
-    <v>42.057000000000002</v>
-    <v>176.82</v>
-    <v>173.23</v>
-    <v>189132700</v>
+    <v>208.93</v>
+    <v>32.4923</v>
+    <v>209.56</v>
+    <v>209.57</v>
+    <v>189540300</v>
     <v>LHX</v>
     <v>L3HARRIS TECHNOLOGIES, INC. (XNYS:LHX)</v>
-    <v>609889</v>
-    <v>1308005</v>
+    <v>542057</v>
+    <v>1221874</v>
     <v>1926</v>
   </rv>
   <rv s="2">
@@ -1404,7 +1458,7 @@
       </c>
       <c r="B2" s="5" cm="1">
         <f t="array" ref="B2">_FV(A1,"Price")</f>
-        <v>173.23</v>
+        <v>209.57</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
@@ -1413,7 +1467,7 @@
       </c>
       <c r="B3" s="6" cm="1">
         <f t="array" ref="B3">_FV(A1,"Shares outstanding",TRUE)/1000000</f>
-        <v>189.1327</v>
+        <v>189.5403</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
@@ -1422,7 +1476,7 @@
       </c>
       <c r="B4" s="5">
         <f>B2*B3</f>
-        <v>32763.457620999998</v>
+        <v>39721.960671000001</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
@@ -1447,15 +1501,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F435F33-7BD9-42E2-8232-42F8075E7EF0}">
-  <dimension ref="A1:B39"/>
+  <dimension ref="A1:C53"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="10.453125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -1463,7 +1520,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1471,7 +1528,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -1479,7 +1536,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -1487,7 +1544,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -1495,7 +1552,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -1503,7 +1560,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>26</v>
       </c>
@@ -1511,130 +1568,213 @@
         <v>1895</v>
       </c>
     </row>
-    <row r="11" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="1" t="s">
+    <row r="10" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" s="17" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="17" t="s">
+        <v>141</v>
+      </c>
+      <c r="B11" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="C11" s="17" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>134</v>
+      </c>
+      <c r="B12" s="7">
+        <v>43356</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>135</v>
+      </c>
+      <c r="B13" s="7">
+        <v>35009</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>136</v>
+      </c>
+      <c r="B14" s="7">
+        <v>37000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>137</v>
+      </c>
+      <c r="B15" s="7">
+        <v>35527</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>138</v>
+      </c>
+      <c r="B16" s="7">
+        <v>39415</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>142</v>
+      </c>
+      <c r="B17" s="7">
+        <v>44941</v>
+      </c>
+      <c r="C17" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="B18" s="7">
+        <v>45125</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="2" t="s">
+    <row r="22" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A13" s="3" t="s">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A23" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A14" s="3" t="s">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A24" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A15" s="3" t="s">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A25" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A16" s="3" t="s">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A26" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A17" s="3" t="s">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A27" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A18" s="3" t="s">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A28" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A19" s="3"/>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A20" s="3"/>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A21" s="3"/>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A22" s="3"/>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A23" s="3"/>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A24" s="3"/>
-    </row>
-    <row r="25" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="2" t="s">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A29" s="3"/>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A30" s="3"/>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A31" s="3"/>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A32" s="3"/>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A33" s="3"/>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A34" s="3"/>
+    </row>
+    <row r="35" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="2" t="s">
         <v>21</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A26" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A27" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A28" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A29" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A30" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A31" s="3"/>
-    </row>
-    <row r="33" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A34" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A35" s="3" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A36" s="3" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A37" s="3" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A38" s="3" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A39" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A40" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A41" s="3"/>
+    </row>
+    <row r="43" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A44" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A45" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A46" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A47" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A48" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A49" s="3" t="s">
         <v>33</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A53" s="1" t="s">
+        <v>132</v>
       </c>
     </row>
   </sheetData>
@@ -1648,10 +1788,10 @@
   <dimension ref="A1:S106"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="7" topLeftCell="H8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="7" topLeftCell="I17" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="P101" sqref="P101"/>
+      <selection pane="bottomRight" activeCell="P96" sqref="P96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3466,9 +3606,6 @@
       <c r="B94" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="P94" s="9">
-        <v>939</v>
-      </c>
       <c r="Q94" s="9">
         <v>2790</v>
       </c>
@@ -3483,9 +3620,6 @@
       <c r="B95" s="10" t="s">
         <v>125</v>
       </c>
-      <c r="P95" s="10">
-        <v>-173</v>
-      </c>
       <c r="Q95" s="10">
         <v>-368</v>
       </c>
@@ -3526,7 +3660,7 @@
       </c>
       <c r="P96" s="9">
         <f t="shared" si="24"/>
-        <v>766</v>
+        <v>0</v>
       </c>
       <c r="Q96" s="9">
         <f t="shared" si="24"/>
@@ -3546,9 +3680,6 @@
       <c r="B98" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="P98" s="9">
-        <v>0</v>
-      </c>
       <c r="Q98" s="9">
         <v>0</v>
       </c>
@@ -3563,9 +3694,6 @@
       <c r="B99" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="P99" s="9">
-        <v>125</v>
-      </c>
       <c r="Q99" s="9">
         <v>94</v>
       </c>
@@ -3580,9 +3708,6 @@
       <c r="B100" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="P100" s="9">
-        <v>-1500</v>
-      </c>
       <c r="Q100" s="9">
         <v>-2290</v>
       </c>
@@ -3596,9 +3721,6 @@
     <row r="101" spans="2:19" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B101" s="9" t="s">
         <v>130</v>
-      </c>
-      <c r="P101" s="9">
-        <v>-337</v>
       </c>
       <c r="Q101" s="9">
         <v>-725</v>
